--- a/src/test/java/resources/excelfile.xlsx
+++ b/src/test/java/resources/excelfile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\CWJUnitProjectDefault\src\test\java\tests\resources\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -83,12 +83,22 @@
   </si>
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>Rusya'nın populasyonu</t>
+  </si>
+  <si>
+    <t>Çin'nın populasyonu</t>
+  </si>
+  <si>
+    <t>ABD'nın populasyonu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,9 +436,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
@@ -438,7 +448,7 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -449,7 +459,7 @@
       <c r="B2" s="3">
         <v>16377742</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>18</v>
       </c>
     </row>
@@ -460,7 +470,7 @@
       <c r="B3" s="3">
         <v>9569901</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>18</v>
       </c>
     </row>
@@ -471,7 +481,7 @@
       <c r="B4" s="3">
         <v>9158960</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>18</v>
       </c>
     </row>
@@ -579,7 +589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824F462C-C901-46F6-B837-362B79D2B39E}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -587,8 +597,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
@@ -598,6 +608,9 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -606,6 +619,9 @@
       <c r="B2" s="3">
         <v>16377742</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -614,6 +630,9 @@
       <c r="B3" s="3">
         <v>9569901</v>
       </c>
+      <c r="C3" t="s" s="0">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -621,6 +640,9 @@
       </c>
       <c r="B4" s="3">
         <v>9158960</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
